--- a/Souq/src/price/Souq/excel_103_blusas.xlsx
+++ b/Souq/src/price/Souq/excel_103_blusas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,5404 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BLUSA ZAIDA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-zaida-04-26-02-669-035.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>648,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>308,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BLUSA WANDA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-wanda-04-26-02-656-002.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>948,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>418,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BLUSA VICKY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-nerissa-04-26-02-657-002.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>948,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>458,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT YOKO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-yoko-04-24-01-365-054.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>458,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT PAOLA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-paola-04-24-01-367-002.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>398,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT PAOLA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-paola-04-24-01-367-005.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>398,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT PAOLA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-paola-04-24-01-367-008.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>398,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT HANA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-hana-04-24-01-359-002.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>378,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT ANA LUCIA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-ana-lucia-04-24-01-356-042.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>368,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT ALMA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-ana-lara-04-24-01-358-002.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BLUSA THAILA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-thaila-04-23-02-519-030.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>458,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BLUSA TACIANA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-peggy-04-26-02-653-035.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BLUSA RAIANE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-raiane-04-26-02-655-054.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>648,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>308,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BLUSA PEGGY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tereza-cristina-04-26-02-647-024.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BLUSA OLIVIA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-olivia-04-23-02-515-014.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>458,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BLUSA MONICA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-monica-04-23-02-535-054.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>398,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BLUSA MEREDITH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-meredith-04-23-02-527-054.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>348,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BLUSA MAELE III</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-maele-iii-04-23-02-539-054.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>328,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BLUSA LOIDE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-loide-04-23-02-522-002.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>108,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BLUSA KAREN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-ale-04-23-02-518-008.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>458,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BLUSA KALIM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-kalim-04-23-02-472-035.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BLUSA INGRID</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-ingrid-04-23-02-497-001.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>229,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>108,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BLUSA HEBE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-hebe-04-23-02-499-002.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BLUSA GABY</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-gaby-04-26-02-659-035.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BLUSA EMILY</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-rosa-04-26-02-649-030.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>378,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>BLUSA ELZIRA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-elzira-04-26-02-668-030.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>648,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>308,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BLUSA DIARA ON</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-diara-li-04-23-02-533-054.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BLUSA DIARA CO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-diara-co-04-23-02-619-054.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT RAISSA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-raissa-04-24-01-298-035.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT RAISSA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-raissa-04-24-01-298-014.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT EMIKA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-emika-04-24-01-361-053.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>598,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>248,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BLUSA DAGMAR</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-dagmar-04-23-02-500-035.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BLUSA CONNIE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-connie-04-26-02-646-055.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>348,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BLUSA AVA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-vicky-04-26-02-664-035.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>478,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>BLUSA AMABILE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-amabile-04-26-02-662-055.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>378,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>BLUSA ALENE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-alene-04-23-02-477-002.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>208,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BLUSA ALENE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-alene-04-23-02-477-052.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>208,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BLUSA ALENE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-alene-04-23-02-477-029.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>208,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>BLUSA ALE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-ale-04-23-02-517-054.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BLUSA CRIS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-cris-04-24-01-360-021.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT GARETH</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-gareth-04-24-01-355-035.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>648,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BLUSA LILIEN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lilien-04-26-02-615-024.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>249,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BLUSA EMMA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-emma-04-26-02-551-057.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BLUSA ZINA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-zina-04-26-02-636-035.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BLUSA LUMIAR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lumiar-04-23-02-498-001.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BLUSA MOARA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-moara-04-26-02-635-001.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>728,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BLUSA LUMIAR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lumiar-04-23-02-498-029.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BODY GENEVRA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/body-genevra-04-23-16-006-029.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BLUSA ROSANA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-rosana-04-26-02-627-054.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BLUSA ALINE I</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-aline-i-04-26-02-628-053.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BLUSA ADINA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-adina-04-26-02-544-035.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Blusa Zilá</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-zila-04-23-02-552-053.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>278,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Blusa Helena</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-helena-04-23-02-548-001.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>348,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Blusa Aurelia</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-aurelia-04-23-02-546-001.html</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Blusa Holda</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-holda-04-23-02-553-053.html</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Blusa Acsa I</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-acsa-i-04-23-02-555-053.html</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BLUSA LUMA ALED</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-luma-aled-04-26-02-526-002.html</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>157,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>BLUSA MILCA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-milca-04-26-02-564-009.html</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>BLUSA NAJLA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-najla-04-26-02-619-002.html</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT CRISTINA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-cristina-04-24-01-351-053.html</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Blusa Magdalena</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-magdalena-04-23-02-545-001.html</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BLUSA CAMILLY</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-camilly-04-26-02-574-016.html</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>BLUSA NANDA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-nanda-04-26-02-552-054.html</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>BLUSA KALIM</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-kalim-04-23-02-472-006.html</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>69,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BLUSA LUPITA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lupita-04-26-02-579-054.html</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>569,00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>278,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>BLUSA LANASSA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lanassa-04-23-02-465-001.html</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>BLUSA KATIA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-katia-algodao-04-26-02-541-002.html</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>289,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TOP TRICOT NIMUE</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/top-tricot-nimue-04-24-10-003-054.html</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>BODY FEDRA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/body-fedra-04-23-16-005-002.html</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BLUSA DORALICE</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-doralice-04-26-02-549-002.html</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BLUSA ALICE</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-alice-04-23-02-395-009.html</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>87,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BLUSA MAGALI</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-magali-04-26-02-577-043.html</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BLUSA CECILE</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-cecile-04-26-02-586-054.html</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>569,00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BLUSA DRIELLE</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-drielle-04-23-02-456-002.html</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BLUSA JANE</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-jane-04-26-02-548-007.html</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>219,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>TOP TRICOT EMILIANA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/top-tricot-emiliana-04-24-10-002-001.html</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>167,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BODY KAMALA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/body-kamala-04-23-16-002-002.html</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>158,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BLUSA TAUANE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tauane-04-23-02-435-043.html</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>379,00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TOP TRICOT MUSA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/top-tricot-musa-04-24-10-005-001.html</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BLUSA CECI</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-ceci-04-23-02-438-016.html</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>BLUSA NAYRA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-nayra-04-26-02-543-002.html</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>BLUSA FERNANDA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-fernanda-04-23-02-494-030.html</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>329,00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>159,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>BLUSA KAUANA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-kauana-04-23-02-436-001.html</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT TACIRA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-tacira-04-24-01-344-054.html</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BODY ELMA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/body-elma-04-26-16-177-001.html</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>BLUSA LUCIMAR</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lucimar-04-26-02-569-002.html</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>BLUSA PHOEBE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-phoebe-04-26-02-482-009.html</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>137,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>BLUSA OFELIA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-ofelia-04-26-02-563-001.html</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>BLUSA CRISLAINE</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-crislaine-04-23-02-458-002.html</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>BLUSA ELIZA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-eliza-04-26-02-533-035.html</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>BLUSA DORA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-dora-04-26-02-546-035.html</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BLUSA KYLIE</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-kylie-04-26-02-498-004.html</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT RAJA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-raja-04-24-01-331-035.html</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>BLUSA ELISA II</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-elisa-ii-04-23-02-471-002.html</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BLUSA BARBRA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-barbra-04-24-01-308-004.html</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>127,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT KATE</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-kate-04-24-01-341-006.html</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BLUSA TABITA</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tabita-04-23-02-460-002.html</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TOP TRICOT ILSA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/top-tricot-ilsa-04-24-10-004-054.html</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BLUSA JUDD</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-judd-04-26-02-401-042.html</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>369,00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>119,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT ADE</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-ade-04-24-01-339-055.html</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT JO</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-jo-04-24-01-320-002.html</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT JO</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-jo-04-24-01-320-009.html</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BLUSA FREENY</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-freeny-04-26-02-443-002.html</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>167,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT ADE</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-ade-04-24-01-339-030.html</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT SHANNON</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-shannon-04-24-01-317-005.html</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>BLUSA NILA</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-nila-04-23-02-447-002.html</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>BLUSA GITA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-gita-04-23-02-448-053.html</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>BLUSA MONA</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-mona-04-26-02-542-004.html</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>BLUSA KEIKO 2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-keiko-2-04-23-02-427-035.html</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>127,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>BLUSA DAISY</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-daisy-04-26-02-494-009.html</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>629,00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>187,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>BLUSA CECI</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-ceci-04-23-02-438-009.html</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>BLUSA JANE</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-jane-04-26-02-548-006.html</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>BLUSA TIRSA</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tirsa-04-26-02-483-002.html</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>549,00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>167,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT ANANDA</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-ananda-04-24-01-322-009.html</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>BLUSA MANUELA</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-manuela-04-23-02-392-007.html</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>117,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>BLUSA ELIANA</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-eliana-04-23-02-482-002.html</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>139,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>BLUSA NAYRA</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-nayra-04-26-02-543-005.html</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT LORI</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-lori-04-24-01-303-005.html</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>BLUSA NYLA</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-nyla-04-26-02-493-009.html</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>649,00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>BLUSA NILA</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-nila-04-23-02-447-001.html</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT MAINARA</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-mainara-04-24-01-332-021.html</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT KATE</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-kate-04-24-01-341-043.html</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>BLUSA EDUARDA</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-eduarda-04-26-02-518-002.html</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>157,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT KATHLEEN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-kathleen-04-24-01-321-043.html</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>BLUSA PISSARRO</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-pissarro-04-26-02-387-007.html</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>147,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT QUITERIA</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-quiteria-04-24-01-350-020.html</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT MARLA</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-marla-04-24-01-323-005.html</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT LOURDES</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-lourdes-04-24-01-349-035.html</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>BLUSA BETA</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-beta-04-26-02-380-007.html</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>579,00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>167,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>BLUSA LANI</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lani-04-23-02-441-007.html</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT LIDIANE</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-lidiane-04-24-01-327-053.html</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT SHANNON</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-shannon-04-24-01-317-035.html</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT JULIANE</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-juliane-04-24-01-348-055.html</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT ANANDA</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-ananda-04-24-01-322-043.html</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT INES</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-ines-04-24-01-328-035.html</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>228,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>BLUSA CHRISTIE</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-christie-04-26-02-448-005.html</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>419,00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>127,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>BLUSA MURAKAMI</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-murakami-04-23-02-208-026.html</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>269,00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>TOP BECA</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/top-beca-04-26-18-006-054.html</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>BLUSA ISOLDA I</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-isolda-i-04-23-02-487-054.html</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT RAISSA</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-raissa-04-24-01-298-010.html</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>BLUSA MELPONE</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-melpone-04-23-02-466-004.html</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>259,00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT ELI</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-eli-04-24-01-338-009.html</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>229,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>BLUSA LANASSA</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-lanassa-04-23-02-465-043.html</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>BLUSA CAROLINE BLUSH</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-caroline-blush-04-01-02-062-206.html</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>729,00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>BLUSA TRICOT NAKINE I</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-tricot-nakine-i-04-24-01-345-053.html</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BLUSAS</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/blusas.html?p=2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>BLUSA DE TRICOT RAISSA</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/blusa-de-tricot-raissa-04-24-01-298-006.html</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
